--- a/docs/CS类型信息表.xlsx
+++ b/docs/CS类型信息表.xlsx
@@ -743,7 +743,7 @@
   <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:L2"/>
+      <selection activeCell="B8" sqref="B8:L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/docs/CS类型信息表.xlsx
+++ b/docs/CS类型信息表.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="72">
   <si>
     <t>类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -279,6 +279,38 @@
   </si>
   <si>
     <t>Covariant Script类型信息表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>for遍历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不支持</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字面量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不支持</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈希值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -286,7 +318,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -299,6 +331,14 @@
       <sz val="9"/>
       <name val="等线"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -317,7 +357,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -340,29 +380,194 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -402,6 +607,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -412,21 +627,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
+        <color rgb="FF9C5700"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -740,692 +945,779 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L32"/>
+  <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:L9"/>
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9" style="1"/>
+    <col min="11" max="11" width="5.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-    </row>
-    <row r="2" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-    </row>
-    <row r="3" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-    </row>
-    <row r="4" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="L4" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="H5" s="11"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" s="14"/>
+      <c r="L5" s="15"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="18"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2" t="s">
+      <c r="C7" s="5"/>
+      <c r="D7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2" t="s">
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="18"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="J8" s="16"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="18"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="18"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="21"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-    </row>
-    <row r="6" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="L29" s="5"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L33" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I34" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2" t="s">
+      <c r="J34" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-    </row>
-    <row r="7" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-    </row>
-    <row r="9" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-    </row>
-    <row r="10" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-    </row>
-    <row r="11" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-    </row>
-    <row r="12" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-    </row>
-    <row r="13" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" s="2" t="s">
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-    </row>
-    <row r="14" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-    </row>
-    <row r="15" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-    </row>
-    <row r="16" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-    </row>
-    <row r="17" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-    </row>
-    <row r="18" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-    </row>
-    <row r="19" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-    </row>
-    <row r="20" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-    </row>
-    <row r="21" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-    </row>
-    <row r="22" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-    </row>
-    <row r="23" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-    </row>
-    <row r="24" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-    </row>
-    <row r="25" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-    </row>
-    <row r="26" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="L26" s="2"/>
-    </row>
-    <row r="27" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-    </row>
-    <row r="28" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-    </row>
-    <row r="29" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-    </row>
-    <row r="30" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L30" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J31" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-    </row>
-    <row r="32" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="37">
-    <mergeCell ref="B32:L32"/>
+  <mergeCells count="43">
+    <mergeCell ref="B35:L35"/>
     <mergeCell ref="A1:L2"/>
-    <mergeCell ref="B27:L27"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:L29"/>
-    <mergeCell ref="B30:J30"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B20:B25"/>
-    <mergeCell ref="C20:C25"/>
-    <mergeCell ref="D21:D25"/>
-    <mergeCell ref="E20:L25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="C14:L15"/>
-    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B30:L30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:L32"/>
+    <mergeCell ref="B33:J33"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B23:B28"/>
+    <mergeCell ref="C23:C28"/>
+    <mergeCell ref="D24:D28"/>
+    <mergeCell ref="E23:L28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="C17:L18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:L19"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="D20:L22"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="C13:L14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="J5:L10"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:I6"/>
     <mergeCell ref="B16:E16"/>
     <mergeCell ref="F16:L16"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="D17:L19"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="C10:L11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="F13:L13"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:I5"/>
-    <mergeCell ref="J5:L7"/>
-    <mergeCell ref="B8:L9"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="E6:I6"/>
-    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:I7"/>
+    <mergeCell ref="B11:L12"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:G8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B5:L32">
+  <conditionalFormatting sqref="A1:XFD4 A11:XFD1048576 A5:J5 A7:I10 M5:XFD10 A6:B6 F6 J6">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"仅比较地址"</formula>
     </cfRule>
@@ -1437,7 +1729,10 @@
     </cfRule>
   </conditionalFormatting>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
-  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;CCovariant Script编程语言 http://covscript.org</oddHeader>
+  </headerFooter>
 </worksheet>
 </file>
--- a/docs/CS类型信息表.xlsx
+++ b/docs/CS类型信息表.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\covscript\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="75">
   <si>
     <t>类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -311,6 +311,18 @@
   </si>
   <si>
     <t>哈希值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结构体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不支持</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -357,7 +369,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -421,24 +433,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -452,13 +446,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -470,24 +457,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -503,18 +472,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -522,13 +485,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -543,68 +503,29 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -945,10 +866,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L35"/>
+  <dimension ref="A1:M35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+      <selection activeCell="G5" sqref="G5:J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -962,160 +883,171 @@
     <col min="7" max="7" width="5.625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9" style="1"/>
-    <col min="11" max="11" width="5.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="1"/>
+    <col min="10" max="10" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9" style="1"/>
+    <col min="12" max="12" width="5.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="K3" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="K4" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="L4" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="M4" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="2" t="s">
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="H5" s="11"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="13" t="s">
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="K5" s="14"/>
-      <c r="L5" s="15"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="10" t="s">
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="18"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -1130,36 +1062,40 @@
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="18"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+      <c r="J7" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="6" t="s">
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="8"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
       <c r="H8" s="3" t="s">
         <v>65</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="J8" s="16"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="18"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+      <c r="J8" s="14"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -1174,12 +1110,13 @@
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="18"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+      <c r="J9" s="14"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -1194,12 +1131,13 @@
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="21"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+      <c r="J10" s="15"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -1215,9 +1153,10 @@
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+      <c r="M11" s="5"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B12" s="5"/>
@@ -1231,9 +1170,10 @@
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+      <c r="M12" s="5"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
         <v>30</v>
       </c>
       <c r="B13" s="5" t="s">
@@ -1251,9 +1191,10 @@
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+      <c r="M13" s="5"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B14" s="5"/>
@@ -1267,29 +1208,31 @@
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
+      <c r="M14" s="5"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5" t="s">
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="K15" s="5"/>
       <c r="L15" s="5"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
+      <c r="M15" s="5"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
         <v>33</v>
       </c>
       <c r="B16" s="5" t="s">
@@ -1307,9 +1250,10 @@
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
+      <c r="M16" s="5"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
         <v>34</v>
       </c>
       <c r="B17" s="5" t="s">
@@ -1327,9 +1271,10 @@
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
+      <c r="M17" s="5"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
         <v>35</v>
       </c>
       <c r="B18" s="5"/>
@@ -1343,9 +1288,10 @@
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
+      <c r="M18" s="5"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
         <v>36</v>
       </c>
       <c r="B19" s="5" t="s">
@@ -1363,9 +1309,10 @@
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
+      <c r="M19" s="5"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B20" s="5" t="s">
@@ -1385,9 +1332,10 @@
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
+      <c r="M20" s="5"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B21" s="5"/>
@@ -1401,9 +1349,10 @@
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
+      <c r="M21" s="5"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
         <v>39</v>
       </c>
       <c r="B22" s="5"/>
@@ -1417,9 +1366,10 @@
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
+      <c r="M22" s="5"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B23" s="5" t="s">
@@ -1441,9 +1391,10 @@
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
+      <c r="M23" s="5"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
         <v>44</v>
       </c>
       <c r="B24" s="5"/>
@@ -1459,9 +1410,10 @@
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
+      <c r="M24" s="5"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
         <v>45</v>
       </c>
       <c r="B25" s="5"/>
@@ -1475,9 +1427,10 @@
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
+      <c r="M25" s="5"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
         <v>46</v>
       </c>
       <c r="B26" s="5"/>
@@ -1491,9 +1444,10 @@
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
+      <c r="M26" s="5"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
         <v>47</v>
       </c>
       <c r="B27" s="5"/>
@@ -1507,9 +1461,10 @@
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
+      <c r="M27" s="5"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
         <v>48</v>
       </c>
       <c r="B28" s="5"/>
@@ -1523,9 +1478,10 @@
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
+      <c r="M28" s="5"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
         <v>50</v>
       </c>
       <c r="B29" s="5" t="s">
@@ -1541,13 +1497,14 @@
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
-      <c r="K29" s="5" t="s">
+      <c r="K29" s="5"/>
+      <c r="L29" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="L29" s="5"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
+      <c r="M29" s="5"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
         <v>49</v>
       </c>
       <c r="B30" s="5" t="s">
@@ -1563,9 +1520,10 @@
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
+      <c r="M30" s="5"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B31" s="5" t="s">
@@ -1583,9 +1541,10 @@
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
+      <c r="M31" s="5"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B32" s="5"/>
@@ -1599,9 +1558,10 @@
       <c r="J32" s="5"/>
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
+      <c r="M32" s="5"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
         <v>51</v>
       </c>
       <c r="B33" s="5" t="s">
@@ -1615,15 +1575,16 @@
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
       <c r="J33" s="5"/>
-      <c r="K33" s="3" t="s">
+      <c r="K33" s="5"/>
+      <c r="L33" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="L33" s="3" t="s">
+      <c r="M33" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B34" s="5" t="s">
@@ -1631,10 +1592,10 @@
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
-      <c r="E34" s="4" t="s">
+      <c r="E34" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F34" s="4" t="s">
+      <c r="F34" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G34" s="3" t="s">
@@ -1646,14 +1607,15 @@
       <c r="I34" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J34" s="5" t="s">
+      <c r="J34" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="K34" s="5"/>
-      <c r="L34" s="5"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="12"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
         <v>42</v>
       </c>
       <c r="B35" s="5" t="s">
@@ -1669,55 +1631,57 @@
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
       <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="43">
-    <mergeCell ref="B35:L35"/>
-    <mergeCell ref="A1:L2"/>
-    <mergeCell ref="B30:L30"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:L32"/>
-    <mergeCell ref="B33:J33"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B23:B28"/>
-    <mergeCell ref="C23:C28"/>
-    <mergeCell ref="D24:D28"/>
-    <mergeCell ref="E23:L28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="C17:L18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F19:L19"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="D20:L22"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="C13:L14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B15:I15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="J5:L10"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:I6"/>
+  <mergeCells count="44">
+    <mergeCell ref="J34:M34"/>
+    <mergeCell ref="G5:J5"/>
     <mergeCell ref="B16:E16"/>
-    <mergeCell ref="F16:L16"/>
+    <mergeCell ref="F16:M16"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:I7"/>
-    <mergeCell ref="B11:L12"/>
+    <mergeCell ref="B11:M12"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="E9:I9"/>
     <mergeCell ref="F10:I10"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="E8:G8"/>
+    <mergeCell ref="J7:J10"/>
+    <mergeCell ref="B15:J15"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="C13:M14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="K15:M15"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="K5:M10"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:M19"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="D20:M22"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="B35:M35"/>
+    <mergeCell ref="A1:M2"/>
+    <mergeCell ref="B30:M30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:M32"/>
+    <mergeCell ref="B33:K33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B23:B28"/>
+    <mergeCell ref="C23:C28"/>
+    <mergeCell ref="D24:D28"/>
+    <mergeCell ref="E23:M28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="C17:M18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A1:XFD4 A11:XFD1048576 A5:J5 A7:I10 M5:XFD10 A6:B6 F6 J6">
+  <conditionalFormatting sqref="A1:XFD4 A11:XFD14 A5:G5 A7:J7 N5:XFD10 A6:B6 F6 A8:I10 A16:XFD33 A15:B15 K15:XFD15 A35:XFD1048576 N34:XFD34 A34:J34 K5:K6">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"仅比较地址"</formula>
     </cfRule>

--- a/docs/CS类型信息表.xlsx
+++ b/docs/CS类型信息表.xlsx
@@ -318,11 +318,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>结构体</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>不支持</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结构</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -488,10 +488,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -503,13 +506,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -519,6 +516,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -869,7 +869,7 @@
   <dimension ref="A1:M35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5:J5"/>
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -891,36 +891,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
@@ -953,11 +953,11 @@
       <c r="J3" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
@@ -988,7 +988,7 @@
         <v>18</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K4" s="4" t="s">
         <v>52</v>
@@ -1004,578 +1004,578 @@
       <c r="A5" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
       <c r="F5" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="6" t="s">
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6" t="s">
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5" t="s">
+      <c r="C7" s="11"/>
+      <c r="D7" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5" t="s">
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
       <c r="H8" s="3" t="s">
         <v>65</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="J8" s="14"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5" t="s">
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5" t="s">
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="5" t="s">
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5" t="s">
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5" t="s">
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="11" t="s">
         <v>22</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5" t="s">
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5" t="s">
+      <c r="C29" s="11"/>
+      <c r="D29" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5" t="s">
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="M29" s="5"/>
+      <c r="M29" s="11"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="5"/>
-      <c r="M31" s="5"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="5"/>
-      <c r="M32" s="5"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
       <c r="L33" s="3" t="s">
         <v>21</v>
       </c>
@@ -1587,11 +1587,11 @@
       <c r="A34" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
       <c r="E34" s="2" t="s">
         <v>21</v>
       </c>
@@ -1607,34 +1607,62 @@
       <c r="I34" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J34" s="10" t="s">
+      <c r="J34" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K34" s="11"/>
-      <c r="L34" s="11"/>
-      <c r="M34" s="12"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="7"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="5"/>
-      <c r="L35" s="5"/>
-      <c r="M35" s="5"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="B35:M35"/>
+    <mergeCell ref="A1:M2"/>
+    <mergeCell ref="B30:M30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:M32"/>
+    <mergeCell ref="B33:K33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B23:B28"/>
+    <mergeCell ref="C23:C28"/>
+    <mergeCell ref="D24:D28"/>
+    <mergeCell ref="E23:M28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="C17:M18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:M19"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="D20:M22"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="C13:M14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="K15:M15"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="K5:M10"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:J6"/>
     <mergeCell ref="J34:M34"/>
     <mergeCell ref="G5:J5"/>
     <mergeCell ref="B16:E16"/>
@@ -1650,35 +1678,7 @@
     <mergeCell ref="E8:G8"/>
     <mergeCell ref="J7:J10"/>
     <mergeCell ref="B15:J15"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="C13:M14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="K15:M15"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="K5:M10"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:J6"/>
     <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F19:M19"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="D20:M22"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="B35:M35"/>
-    <mergeCell ref="A1:M2"/>
-    <mergeCell ref="B30:M30"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:M32"/>
-    <mergeCell ref="B33:K33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B23:B28"/>
-    <mergeCell ref="C23:C28"/>
-    <mergeCell ref="D24:D28"/>
-    <mergeCell ref="E23:M28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:K29"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="C17:M18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:XFD4 A11:XFD14 A5:G5 A7:J7 N5:XFD10 A6:B6 F6 A8:I10 A16:XFD33 A15:B15 K15:XFD15 A35:XFD1048576 N34:XFD34 A34:J34 K5:K6">

--- a/docs/CS类型信息表.xlsx
+++ b/docs/CS类型信息表.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="99">
   <si>
     <t>类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -206,10 +206,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>乘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>除</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -359,6 +355,66 @@
   </si>
   <si>
     <t>不支持</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pointer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指针</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不支持</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不支持</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>箭头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不支持</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不支持</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乘/解引用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不支持</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不支持</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请内存</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -432,11 +488,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -445,71 +498,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -880,31 +882,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N36"/>
+  <dimension ref="A1:O38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18:N19"/>
+      <selection sqref="A1:O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="7.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="7.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9" style="1"/>
-    <col min="13" max="14" width="7.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="9.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="7.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="7.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9" style="3"/>
+    <col min="14" max="14" width="5.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -919,8 +922,9 @@
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O1" s="2"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -935,129 +939,139 @@
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="O2" s="2"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="O3" s="2"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="K4" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="K4" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="M5" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="G5" s="2" t="s">
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>68</v>
-      </c>
+      <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2" t="s">
+        <v>66</v>
+      </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -1065,98 +1079,104 @@
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+      <c r="O6" s="2"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C7" s="2"/>
-      <c r="D7" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="I7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="J7" s="2"/>
-      <c r="K7" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="L7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>72</v>
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
-      <c r="H8" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="K8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
+      <c r="O8" s="2"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
-      <c r="I9" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="J9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
+      <c r="O9" s="2"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
+      <c r="D10" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="E10" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -1165,21 +1185,22 @@
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
+      <c r="O10" s="2"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
@@ -1187,9 +1208,10 @@
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
+      <c r="O11" s="2"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -1207,9 +1229,10 @@
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
+      <c r="O12" s="2"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B13" s="2"/>
@@ -1225,13 +1248,14 @@
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
+      <c r="O13" s="2"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>22</v>
@@ -1247,9 +1271,10 @@
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
+      <c r="O14" s="2"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B15" s="2"/>
@@ -1265,9 +1290,10 @@
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
+      <c r="O15" s="2"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -1282,14 +1308,15 @@
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
-      <c r="L16" s="2" t="s">
+      <c r="L16" s="2"/>
+      <c r="M16" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="M16" s="2"/>
       <c r="N16" s="2"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
+      <c r="O16" s="2"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -1298,10 +1325,10 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
@@ -1309,16 +1336,17 @@
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
+      <c r="O17" s="2"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -1331,9 +1359,10 @@
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
+      <c r="O18" s="2"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B19" s="2"/>
@@ -1349,9 +1378,10 @@
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
+      <c r="O19" s="2"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -1360,10 +1390,10 @@
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="G20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
@@ -1371,9 +1401,10 @@
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
+      <c r="O20" s="2"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -1395,9 +1426,10 @@
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
+      <c r="O21" s="2"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B22" s="2"/>
@@ -1413,9 +1445,10 @@
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
+      <c r="O22" s="2"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B23" s="2"/>
@@ -1431,9 +1464,10 @@
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
+      <c r="O23" s="2"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -1442,14 +1476,18 @@
       <c r="C24" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D24" s="2"/>
-      <c r="E24" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G24" s="2"/>
+      <c r="D24" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
@@ -1457,18 +1495,19 @@
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
+      <c r="O24" s="2"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
-      <c r="E25" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
@@ -1477,14 +1516,17 @@
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
-        <v>45</v>
+      <c r="O25" s="2"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
+      <c r="D26" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
@@ -1495,14 +1537,17 @@
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
-        <v>46</v>
+      <c r="O26" s="2"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
+      <c r="D27" s="2" t="s">
+        <v>96</v>
+      </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
@@ -1513,10 +1558,11 @@
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
-        <v>47</v>
+      <c r="O27" s="2"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -1531,10 +1577,11 @@
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
-        <v>48</v>
+      <c r="O28" s="2"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -1549,19 +1596,20 @@
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
-        <v>50</v>
+      <c r="O29" s="2"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C30" s="2"/>
-      <c r="D30" s="2" t="s">
+      <c r="D30" s="2"/>
+      <c r="E30" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
@@ -1570,42 +1618,44 @@
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
-      <c r="N30" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
-        <v>49</v>
+      <c r="N30" s="2"/>
+      <c r="O30" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>21</v>
+        <v>92</v>
       </c>
       <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
+      <c r="D31" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>93</v>
+      </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
-      <c r="L31" s="2" t="s">
-        <v>79</v>
-      </c>
+      <c r="L31" s="2"/>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
-        <v>40</v>
+      <c r="O31" s="2"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>59</v>
-      </c>
+      <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
@@ -1615,15 +1665,22 @@
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
+      <c r="M32" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="N32" s="2"/>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A33" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
+      <c r="O32" s="2"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
@@ -1635,14 +1692,13 @@
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>60</v>
-      </c>
+      <c r="O33" s="2"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
@@ -1654,112 +1710,168 @@
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
-      <c r="N34" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A35" s="3" t="s">
-        <v>2</v>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
-      <c r="E35" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J35" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A36" s="3" t="s">
-        <v>42</v>
+      <c r="O35" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
+      <c r="F36" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A38" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="O38" s="4" t="s">
+        <v>93</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="48">
-    <mergeCell ref="D30:M30"/>
-    <mergeCell ref="B31:K31"/>
-    <mergeCell ref="J35:N35"/>
-    <mergeCell ref="L31:N31"/>
-    <mergeCell ref="B34:M34"/>
-    <mergeCell ref="B12:K13"/>
-    <mergeCell ref="L5:N13"/>
-    <mergeCell ref="C24:D29"/>
-    <mergeCell ref="E25:E29"/>
-    <mergeCell ref="F24:N29"/>
-    <mergeCell ref="J3:N3"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="J8:J11"/>
-    <mergeCell ref="F7:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F17:N17"/>
+  <mergeCells count="55">
+    <mergeCell ref="B38:M38"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="B10:C11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="D21:O23"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E31:O31"/>
+    <mergeCell ref="C24:C29"/>
+    <mergeCell ref="E24:E29"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="B37:O37"/>
+    <mergeCell ref="A1:O2"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:O34"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="B24:B29"/>
+    <mergeCell ref="C18:O19"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="E5:F7"/>
+    <mergeCell ref="B5:C6"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="C14:O15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="M16:O16"/>
+    <mergeCell ref="K3:O3"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="K8:K11"/>
+    <mergeCell ref="G7:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="F10:J10"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="L7:L11"/>
+    <mergeCell ref="G6:L6"/>
+    <mergeCell ref="B12:L13"/>
+    <mergeCell ref="M5:O13"/>
+    <mergeCell ref="F25:F29"/>
+    <mergeCell ref="G24:O29"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="G17:O17"/>
     <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="K7:K11"/>
-    <mergeCell ref="B16:K16"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B16:L16"/>
     <mergeCell ref="B18:B19"/>
-    <mergeCell ref="F20:N20"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="D21:N23"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="C14:N15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="L16:N16"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:K6"/>
-    <mergeCell ref="B36:N36"/>
-    <mergeCell ref="A1:N2"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:N33"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B24:B29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="C18:N19"/>
-    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="G20:O20"/>
+    <mergeCell ref="E30:N30"/>
+    <mergeCell ref="B32:L32"/>
+    <mergeCell ref="K36:O36"/>
+    <mergeCell ref="M32:O32"/>
+    <mergeCell ref="B35:N35"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:XFD1048576">
@@ -1774,7 +1886,7 @@
     </cfRule>
   </conditionalFormatting>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
-  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;CCovariant Script编程语言 http://covscript.org</oddHeader>

--- a/docs/CS类型信息表.xlsx
+++ b/docs/CS类型信息表.xlsx
@@ -86,10 +86,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>链表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>数组</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -98,10 +94,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>哈希表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>扩展</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -419,6 +411,14 @@
   </si>
   <si>
     <t>支持</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>线性表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>散列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -495,9 +495,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -507,41 +504,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -890,60 +860,60 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="7.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="7.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9" style="3"/>
-    <col min="14" max="14" width="5.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="9.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="7.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="7.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9" style="2"/>
+    <col min="14" max="14" width="5.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
+      <c r="A1" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>4</v>
@@ -952,7 +922,7 @@
         <v>5</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>3</v>
@@ -972,11 +942,11 @@
       <c r="J3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -989,7 +959,7 @@
         <v>13</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>11</v>
@@ -998,838 +968,848 @@
         <v>14</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="J4" s="1" t="s">
-        <v>18</v>
+        <v>98</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="H5" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
       <c r="K5" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2" t="s">
-        <v>74</v>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5" t="s">
+        <v>72</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K8" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
+      <c r="K8" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
       <c r="J9" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
+        <v>61</v>
+      </c>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
+        <v>23</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
       <c r="F11" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
+        <v>87</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
+        <v>26</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
+        <v>27</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
+        <v>28</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
+        <v>30</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
+        <v>31</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
+        <v>32</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
+        <v>33</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
+      <c r="C21" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E24" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="F24" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
+        <v>92</v>
+      </c>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
       <c r="D26" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
+        <v>87</v>
+      </c>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
+        <v>47</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
       <c r="O30" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B31" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C31" s="2"/>
+      <c r="C31" s="5"/>
       <c r="D31" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E31" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="E31" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="5"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
+        <v>46</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="N32" s="5"/>
+      <c r="O32" s="5"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="5"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="5"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
+        <v>48</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5"/>
       <c r="O35" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
+      <c r="B36" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
       <c r="F36" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H36" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I36" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I36" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="J36" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K36" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="K36" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="5"/>
+      <c r="O36" s="5"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="5"/>
+      <c r="O37" s="5"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A38" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5"/>
-      <c r="K38" s="5"/>
-      <c r="L38" s="5"/>
-      <c r="M38" s="5"/>
-      <c r="N38" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="O38" s="4" t="s">
-        <v>93</v>
+      <c r="A38" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="O38" s="3" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="B38:M38"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="B10:C11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="D21:O23"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E31:O31"/>
-    <mergeCell ref="C24:C29"/>
-    <mergeCell ref="E24:E29"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="B37:O37"/>
+    <mergeCell ref="E30:N30"/>
+    <mergeCell ref="B32:L32"/>
+    <mergeCell ref="K36:O36"/>
+    <mergeCell ref="M32:O32"/>
+    <mergeCell ref="B35:N35"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B16:L16"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="G20:O20"/>
+    <mergeCell ref="F25:F29"/>
+    <mergeCell ref="G24:O29"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="G17:O17"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="K8:K11"/>
+    <mergeCell ref="G7:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="F10:J10"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="G6:L6"/>
     <mergeCell ref="A1:O2"/>
     <mergeCell ref="B33:B34"/>
     <mergeCell ref="C33:O34"/>
@@ -1846,42 +1826,32 @@
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="M16:O16"/>
     <mergeCell ref="K3:O3"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="K8:K11"/>
-    <mergeCell ref="G7:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="F10:J10"/>
-    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="B38:M38"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="B10:C11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="D21:O23"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E31:O31"/>
+    <mergeCell ref="C24:C29"/>
+    <mergeCell ref="E24:E29"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="B37:O37"/>
     <mergeCell ref="L7:L11"/>
-    <mergeCell ref="G6:L6"/>
     <mergeCell ref="B12:L13"/>
     <mergeCell ref="M5:O13"/>
-    <mergeCell ref="F25:F29"/>
-    <mergeCell ref="G24:O29"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="G17:O17"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B16:L16"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="G20:O20"/>
-    <mergeCell ref="E30:N30"/>
-    <mergeCell ref="B32:L32"/>
-    <mergeCell ref="K36:O36"/>
-    <mergeCell ref="M32:O32"/>
-    <mergeCell ref="B35:N35"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"仅比较地址"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"不支持"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>"支持"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/docs/CS类型信息表.xlsx
+++ b/docs/CS类型信息表.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="100">
   <si>
     <t>类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -186,18 +186,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>类型信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>加</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>减</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>除</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -406,10 +398,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>申请内存</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>支持</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -419,6 +407,22 @@
   </si>
   <si>
     <t>散列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>new/gcnew</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>typeid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减/负号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -459,7 +463,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -482,13 +486,112 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -501,17 +604,77 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -852,15 +1015,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O38"/>
+  <dimension ref="A1:P38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:O2"/>
+      <selection sqref="A1:P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.25" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.375" style="2" bestFit="1" customWidth="1"/>
@@ -868,16 +1031,17 @@
     <col min="8" max="8" width="5.625" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.125" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="7.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9" style="2"/>
-    <col min="14" max="14" width="5.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="2"/>
+    <col min="11" max="11" width="3.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="7.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9" style="2"/>
+    <col min="15" max="15" width="5.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -893,8 +1057,9 @@
       <c r="M1" s="5"/>
       <c r="N1" s="5"/>
       <c r="O1" s="5"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P1" s="5"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -910,8 +1075,9 @@
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P2" s="5"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>22</v>
       </c>
@@ -922,7 +1088,7 @@
         <v>5</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>3</v>
@@ -942,13 +1108,14 @@
       <c r="J3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="K3" s="7"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="9"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -959,7 +1126,7 @@
         <v>13</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>11</v>
@@ -968,7 +1135,7 @@
         <v>14</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>15</v>
@@ -977,62 +1144,66 @@
         <v>16</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>78</v>
+        <v>95</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>96</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="N4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="O4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="O4" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P4" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
-      <c r="K5" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="M5" s="5" t="s">
+      <c r="K5" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="L5" s="9"/>
+      <c r="M5" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -1040,7 +1211,7 @@
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
@@ -1050,8 +1221,9 @@
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P6" s="5"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
@@ -1063,27 +1235,28 @@
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H7" s="5"/>
       <c r="I7" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
-      <c r="L7" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="M7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5" t="s">
+        <v>65</v>
+      </c>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="5"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>69</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>71</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -1092,45 +1265,47 @@
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="K8" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="L8" s="5"/>
+      <c r="K8" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="L8" s="11"/>
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="5"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
       <c r="J9" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
+        <v>59</v>
+      </c>
+      <c r="K9" s="12"/>
+      <c r="L9" s="13"/>
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="5"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>23</v>
       </c>
@@ -1139,10 +1314,10 @@
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>20</v>
@@ -1151,13 +1326,14 @@
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="13"/>
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="5"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
@@ -1166,7 +1342,7 @@
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>20</v>
@@ -1174,13 +1350,14 @@
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="15"/>
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="5"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>26</v>
       </c>
@@ -1200,8 +1377,9 @@
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="5"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>27</v>
       </c>
@@ -1219,13 +1397,14 @@
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="5"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>20</v>
@@ -1242,8 +1421,9 @@
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
       <c r="O14" s="5"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="5"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>29</v>
       </c>
@@ -1261,8 +1441,9 @@
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
       <c r="O15" s="5"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="5"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>30</v>
       </c>
@@ -1279,13 +1460,14 @@
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
-      <c r="M16" s="5" t="s">
+      <c r="M16" s="5"/>
+      <c r="N16" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="N16" s="5"/>
       <c r="O16" s="5"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="5"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>31</v>
       </c>
@@ -1297,7 +1479,7 @@
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
@@ -1307,8 +1489,9 @@
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
       <c r="O17" s="5"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="5"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>32</v>
       </c>
@@ -1316,7 +1499,7 @@
         <v>18</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
@@ -1330,8 +1513,9 @@
       <c r="M18" s="5"/>
       <c r="N18" s="5"/>
       <c r="O18" s="5"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="5"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>33</v>
       </c>
@@ -1349,8 +1533,9 @@
       <c r="M19" s="5"/>
       <c r="N19" s="5"/>
       <c r="O19" s="5"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="5"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>34</v>
       </c>
@@ -1362,7 +1547,7 @@
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
@@ -1372,8 +1557,9 @@
       <c r="M20" s="5"/>
       <c r="N20" s="5"/>
       <c r="O20" s="5"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="5"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>35</v>
       </c>
@@ -1397,8 +1583,9 @@
       <c r="M21" s="5"/>
       <c r="N21" s="5"/>
       <c r="O21" s="5"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="5"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>36</v>
       </c>
@@ -1416,8 +1603,9 @@
       <c r="M22" s="5"/>
       <c r="N22" s="5"/>
       <c r="O22" s="5"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="5"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>37</v>
       </c>
@@ -1435,10 +1623,11 @@
       <c r="M23" s="5"/>
       <c r="N23" s="5"/>
       <c r="O23" s="5"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="5"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>18</v>
@@ -1447,16 +1636,16 @@
         <v>20</v>
       </c>
       <c r="D24" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E24" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="E24" s="5" t="s">
-        <v>93</v>
-      </c>
       <c r="F24" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
@@ -1466,17 +1655,18 @@
       <c r="M24" s="5"/>
       <c r="N24" s="5"/>
       <c r="O24" s="5"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="5"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>42</v>
+        <v>99</v>
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
@@ -1487,15 +1677,16 @@
       <c r="M25" s="5"/>
       <c r="N25" s="5"/>
       <c r="O25" s="5"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="5"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
@@ -1508,15 +1699,16 @@
       <c r="M26" s="5"/>
       <c r="N26" s="5"/>
       <c r="O26" s="5"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="5"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
@@ -1529,10 +1721,11 @@
       <c r="M27" s="5"/>
       <c r="N27" s="5"/>
       <c r="O27" s="5"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="5"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -1548,10 +1741,11 @@
       <c r="M28" s="5"/>
       <c r="N28" s="5"/>
       <c r="O28" s="5"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="5"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -1567,10 +1761,11 @@
       <c r="M29" s="5"/>
       <c r="N29" s="5"/>
       <c r="O29" s="5"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="5"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>20</v>
@@ -1589,23 +1784,24 @@
       <c r="L30" s="5"/>
       <c r="M30" s="5"/>
       <c r="N30" s="5"/>
-      <c r="O30" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="5"/>
+      <c r="P30" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B31" s="5" t="s">
         <v>88</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>90</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E31" s="5" t="s">
         <v>89</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>91</v>
       </c>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
@@ -1617,10 +1813,11 @@
       <c r="M31" s="5"/>
       <c r="N31" s="5"/>
       <c r="O31" s="5"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="5"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>19</v>
@@ -1635,13 +1832,14 @@
       <c r="J32" s="5"/>
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
-      <c r="M32" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="N32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5" t="s">
+        <v>74</v>
+      </c>
       <c r="O32" s="5"/>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="5"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>38</v>
       </c>
@@ -1649,7 +1847,7 @@
         <v>19</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
@@ -1663,8 +1861,9 @@
       <c r="M33" s="5"/>
       <c r="N33" s="5"/>
       <c r="O33" s="5"/>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="5"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>39</v>
       </c>
@@ -1682,13 +1881,14 @@
       <c r="M34" s="5"/>
       <c r="N34" s="5"/>
       <c r="O34" s="5"/>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="5"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
@@ -1702,11 +1902,12 @@
       <c r="L35" s="5"/>
       <c r="M35" s="5"/>
       <c r="N35" s="5"/>
-      <c r="O35" s="1" t="s">
+      <c r="O35" s="5"/>
+      <c r="P35" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>2</v>
       </c>
@@ -1731,17 +1932,18 @@
       <c r="J36" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K36" s="5" t="s">
+      <c r="K36" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="L36" s="5"/>
-      <c r="M36" s="5"/>
-      <c r="N36" s="5"/>
-      <c r="O36" s="5"/>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="L36" s="8"/>
+      <c r="M36" s="8"/>
+      <c r="N36" s="8"/>
+      <c r="O36" s="8"/>
+      <c r="P36" s="9"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>19</v>
@@ -1759,99 +1961,102 @@
       <c r="M37" s="5"/>
       <c r="N37" s="5"/>
       <c r="O37" s="5"/>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P37" s="5"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
-      <c r="K38" s="4"/>
-      <c r="L38" s="4"/>
-      <c r="M38" s="4"/>
-      <c r="N38" s="3" t="s">
-        <v>96</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="6"/>
+      <c r="N38" s="6"/>
       <c r="O38" s="3" t="s">
-        <v>91</v>
+        <v>93</v>
+      </c>
+      <c r="P38" s="3" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="55">
-    <mergeCell ref="E30:N30"/>
-    <mergeCell ref="B32:L32"/>
-    <mergeCell ref="K36:O36"/>
-    <mergeCell ref="M32:O32"/>
-    <mergeCell ref="B35:N35"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B16:L16"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="G20:O20"/>
-    <mergeCell ref="F25:F29"/>
-    <mergeCell ref="G24:O29"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="G17:O17"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="K8:K11"/>
-    <mergeCell ref="G7:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="F10:J10"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="G6:L6"/>
-    <mergeCell ref="A1:O2"/>
+  <mergeCells count="56">
+    <mergeCell ref="K3:P3"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="K8:L11"/>
+    <mergeCell ref="K36:P36"/>
+    <mergeCell ref="B38:N38"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="B10:C11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="D21:P23"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E31:P31"/>
+    <mergeCell ref="C24:C29"/>
+    <mergeCell ref="E24:E29"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="B37:P37"/>
+    <mergeCell ref="M7:M11"/>
+    <mergeCell ref="B12:M13"/>
+    <mergeCell ref="N5:P13"/>
+    <mergeCell ref="A1:P2"/>
     <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:O34"/>
+    <mergeCell ref="C33:P34"/>
     <mergeCell ref="B36:E36"/>
     <mergeCell ref="B24:B29"/>
-    <mergeCell ref="C18:O19"/>
+    <mergeCell ref="C18:P19"/>
     <mergeCell ref="B20:F20"/>
     <mergeCell ref="D5:D7"/>
     <mergeCell ref="E5:F7"/>
     <mergeCell ref="B5:C6"/>
     <mergeCell ref="B21:B23"/>
     <mergeCell ref="C21:C23"/>
-    <mergeCell ref="C14:O15"/>
+    <mergeCell ref="C14:P15"/>
     <mergeCell ref="B14:B15"/>
-    <mergeCell ref="M16:O16"/>
-    <mergeCell ref="K3:O3"/>
-    <mergeCell ref="B38:M38"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="B10:C11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="D21:O23"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E31:O31"/>
-    <mergeCell ref="C24:C29"/>
-    <mergeCell ref="E24:E29"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="B37:O37"/>
-    <mergeCell ref="L7:L11"/>
-    <mergeCell ref="B12:L13"/>
-    <mergeCell ref="M5:O13"/>
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="G7:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="F10:J10"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="G6:M6"/>
+    <mergeCell ref="F25:F29"/>
+    <mergeCell ref="G24:P29"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="G17:P17"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B16:M16"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="G20:P20"/>
+    <mergeCell ref="E30:O30"/>
+    <mergeCell ref="B32:M32"/>
+    <mergeCell ref="N32:P32"/>
+    <mergeCell ref="B35:O35"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"仅比较地址"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>"不支持"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"支持"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/docs/CS类型信息表.xlsx
+++ b/docs/CS类型信息表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="101">
   <si>
     <t>类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -186,22 +186,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>加</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>取余</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>乘方</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>配对</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -386,10 +370,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>乘/解引用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>不支持</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -422,7 +402,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>减/负号</t>
+    <t>异常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加/加等于</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减/减等于/负号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乘/乘等于/解引用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>除/除等于</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取余/取余等于</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乘方/乘方等于</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -463,7 +467,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -585,13 +589,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -608,9 +630,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -640,41 +659,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1015,15 +1019,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P38"/>
+  <dimension ref="A1:Q38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:P2"/>
+      <selection activeCell="D21" sqref="D21:Q23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.75" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.25" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.375" style="2" bestFit="1" customWidth="1"/>
@@ -1032,52 +1036,55 @@
     <col min="9" max="9" width="7.125" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.75" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="3.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="7.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9" style="2"/>
-    <col min="15" max="15" width="5.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="2"/>
+    <col min="12" max="12" width="5.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="7.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9" style="2"/>
+    <col min="16" max="16" width="5.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A1" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>22</v>
       </c>
@@ -1088,7 +1095,7 @@
         <v>5</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>3</v>
@@ -1108,14 +1115,15 @@
       <c r="J3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="7"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="9"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K3" s="6"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="8"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -1126,7 +1134,7 @@
         <v>13</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>11</v>
@@ -1135,7 +1143,7 @@
         <v>14</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>15</v>
@@ -1144,779 +1152,813 @@
         <v>16</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>76</v>
+        <v>91</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>94</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="O4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P4" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q4" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="16"/>
+      <c r="G5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="L5" s="7"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="O5" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="L5" s="9"/>
-      <c r="M5" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="N5" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5" t="s">
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5" t="s">
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="16"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B8" s="5" t="s">
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K8" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K8" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="L8" s="11"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="L8" s="17"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="16"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
+        <v>53</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
       <c r="F9" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
+        <v>55</v>
+      </c>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
       <c r="J9" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="K9" s="12"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+      <c r="K9" s="11"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="F10" s="5" t="s">
+      <c r="C10" s="16"/>
+      <c r="D10" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="F10" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="16"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
       <c r="F11" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G11" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G11" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14" s="5" t="s">
+      <c r="B14" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="16"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="16"/>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="16"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5" t="s">
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P16" s="16"/>
+      <c r="Q16" s="16"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="16"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="16"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="C18" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="16"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="16"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="16"/>
+      <c r="P20" s="16"/>
+      <c r="Q20" s="16"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="16"/>
+      <c r="O21" s="16"/>
+      <c r="P21" s="16"/>
+      <c r="Q21" s="16"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="16"/>
+      <c r="N22" s="16"/>
+      <c r="O22" s="16"/>
+      <c r="P22" s="16"/>
+      <c r="Q22" s="16"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="16"/>
+      <c r="O23" s="16"/>
+      <c r="P23" s="16"/>
+      <c r="Q23" s="16"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G24" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="16"/>
+      <c r="N24" s="16"/>
+      <c r="O24" s="16"/>
+      <c r="P24" s="16"/>
+      <c r="Q24" s="16"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="16"/>
+      <c r="N25" s="16"/>
+      <c r="O25" s="16"/>
+      <c r="P25" s="16"/>
+      <c r="Q25" s="16"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="16"/>
+      <c r="N26" s="16"/>
+      <c r="O26" s="16"/>
+      <c r="P26" s="16"/>
+      <c r="Q26" s="16"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="16"/>
+      <c r="N27" s="16"/>
+      <c r="O27" s="16"/>
+      <c r="P27" s="16"/>
+      <c r="Q27" s="16"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="16"/>
+      <c r="M28" s="16"/>
+      <c r="N28" s="16"/>
+      <c r="O28" s="16"/>
+      <c r="P28" s="16"/>
+      <c r="Q28" s="16"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="16"/>
+      <c r="M29" s="16"/>
+      <c r="N29" s="16"/>
+      <c r="O29" s="16"/>
+      <c r="P29" s="16"/>
+      <c r="Q29" s="16"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="16"/>
+      <c r="L30" s="16"/>
+      <c r="M30" s="16"/>
+      <c r="N30" s="16"/>
+      <c r="O30" s="16"/>
+      <c r="P30" s="16"/>
+      <c r="Q30" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="C31" s="16"/>
+      <c r="D31" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="16"/>
+      <c r="N31" s="16"/>
+      <c r="O31" s="16"/>
+      <c r="P31" s="16"/>
+      <c r="Q31" s="16"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="5"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="5"/>
-      <c r="P25" s="5"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
-      <c r="O26" s="5"/>
-      <c r="P26" s="5"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
-      <c r="N27" s="5"/>
-      <c r="O27" s="5"/>
-      <c r="P27" s="5"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="5"/>
-      <c r="O28" s="5"/>
-      <c r="P28" s="5"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="5"/>
-      <c r="O29" s="5"/>
-      <c r="P29" s="5"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5" t="s">
+      <c r="B32" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
-      <c r="N30" s="5"/>
-      <c r="O30" s="5"/>
-      <c r="P30" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="C31" s="5"/>
-      <c r="D31" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="5"/>
-      <c r="M31" s="5"/>
-      <c r="N31" s="5"/>
-      <c r="O31" s="5"/>
-      <c r="P31" s="5"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="5"/>
-      <c r="M32" s="5"/>
-      <c r="N32" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="O32" s="5"/>
-      <c r="P32" s="5"/>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="16"/>
+      <c r="N32" s="16"/>
+      <c r="O32" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="P32" s="16"/>
+      <c r="Q32" s="16"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C33" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="5"/>
-      <c r="M33" s="5"/>
-      <c r="N33" s="5"/>
-      <c r="O33" s="5"/>
-      <c r="P33" s="5"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="C33" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="16"/>
+      <c r="L33" s="16"/>
+      <c r="M33" s="16"/>
+      <c r="N33" s="16"/>
+      <c r="O33" s="16"/>
+      <c r="P33" s="16"/>
+      <c r="Q33" s="16"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="5"/>
-      <c r="M34" s="5"/>
-      <c r="N34" s="5"/>
-      <c r="O34" s="5"/>
-      <c r="P34" s="5"/>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="16"/>
+      <c r="L34" s="16"/>
+      <c r="M34" s="16"/>
+      <c r="N34" s="16"/>
+      <c r="O34" s="16"/>
+      <c r="P34" s="16"/>
+      <c r="Q34" s="16"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="5"/>
-      <c r="L35" s="5"/>
-      <c r="M35" s="5"/>
-      <c r="N35" s="5"/>
-      <c r="O35" s="5"/>
-      <c r="P35" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="16"/>
+      <c r="L35" s="16"/>
+      <c r="M35" s="16"/>
+      <c r="N35" s="16"/>
+      <c r="O35" s="16"/>
+      <c r="P35" s="16"/>
+      <c r="Q35" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
       <c r="F36" s="1" t="s">
         <v>19</v>
       </c>
@@ -1932,131 +1974,134 @@
       <c r="J36" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="K36" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="L36" s="8"/>
-      <c r="M36" s="8"/>
-      <c r="N36" s="8"/>
-      <c r="O36" s="8"/>
-      <c r="P36" s="9"/>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="L36" s="7"/>
+      <c r="M36" s="7"/>
+      <c r="N36" s="7"/>
+      <c r="O36" s="7"/>
+      <c r="P36" s="7"/>
+      <c r="Q36" s="8"/>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B37" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B37" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
-      <c r="K37" s="5"/>
-      <c r="L37" s="5"/>
-      <c r="M37" s="5"/>
-      <c r="N37" s="5"/>
-      <c r="O37" s="5"/>
-      <c r="P37" s="5"/>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="16"/>
+      <c r="J37" s="16"/>
+      <c r="K37" s="16"/>
+      <c r="L37" s="16"/>
+      <c r="M37" s="16"/>
+      <c r="N37" s="16"/>
+      <c r="O37" s="16"/>
+      <c r="P37" s="16"/>
+      <c r="Q37" s="16"/>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B38" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="15"/>
+      <c r="K38" s="15"/>
+      <c r="L38" s="15"/>
+      <c r="M38" s="15"/>
+      <c r="N38" s="15"/>
+      <c r="O38" s="15"/>
+      <c r="P38" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
-      <c r="J38" s="6"/>
-      <c r="K38" s="6"/>
-      <c r="L38" s="6"/>
-      <c r="M38" s="6"/>
-      <c r="N38" s="6"/>
-      <c r="O38" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="P38" s="3" t="s">
-        <v>89</v>
+      <c r="Q38" s="3" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="K3:P3"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="K8:L11"/>
-    <mergeCell ref="K36:P36"/>
-    <mergeCell ref="B38:N38"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="B10:C11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="D21:P23"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E31:P31"/>
-    <mergeCell ref="C24:C29"/>
-    <mergeCell ref="E24:E29"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="B37:P37"/>
-    <mergeCell ref="M7:M11"/>
-    <mergeCell ref="B12:M13"/>
-    <mergeCell ref="N5:P13"/>
-    <mergeCell ref="A1:P2"/>
+    <mergeCell ref="E30:P30"/>
+    <mergeCell ref="B32:N32"/>
+    <mergeCell ref="O32:Q32"/>
+    <mergeCell ref="B35:P35"/>
+    <mergeCell ref="F25:F29"/>
+    <mergeCell ref="G24:Q29"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="G17:Q17"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B16:N16"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="G20:Q20"/>
+    <mergeCell ref="C14:Q15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="O16:Q16"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="I7:M7"/>
+    <mergeCell ref="G7:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="F10:J10"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="G6:N6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B37:Q37"/>
+    <mergeCell ref="N7:N11"/>
+    <mergeCell ref="B12:N13"/>
+    <mergeCell ref="O5:Q13"/>
+    <mergeCell ref="A1:Q2"/>
     <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:P34"/>
+    <mergeCell ref="C33:Q34"/>
     <mergeCell ref="B36:E36"/>
     <mergeCell ref="B24:B29"/>
-    <mergeCell ref="C18:P19"/>
+    <mergeCell ref="C18:Q19"/>
     <mergeCell ref="B20:F20"/>
     <mergeCell ref="D5:D7"/>
     <mergeCell ref="E5:F7"/>
     <mergeCell ref="B5:C6"/>
     <mergeCell ref="B21:B23"/>
     <mergeCell ref="C21:C23"/>
-    <mergeCell ref="C14:P15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="N16:P16"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="G7:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="F10:J10"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="G6:M6"/>
-    <mergeCell ref="F25:F29"/>
-    <mergeCell ref="G24:P29"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="G17:P17"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B16:M16"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="G20:P20"/>
-    <mergeCell ref="E30:O30"/>
-    <mergeCell ref="B32:M32"/>
-    <mergeCell ref="N32:P32"/>
-    <mergeCell ref="B35:O35"/>
+    <mergeCell ref="K3:Q3"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="K8:M11"/>
+    <mergeCell ref="K36:Q36"/>
+    <mergeCell ref="B38:O38"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="B10:C11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="D21:Q23"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E31:Q31"/>
+    <mergeCell ref="C24:C29"/>
+    <mergeCell ref="E24:E29"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="D27:D29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"仅比较地址"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"不支持"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>"支持"</formula>
     </cfRule>
   </conditionalFormatting>
